--- a/SE2020-G02-实现阶段/阶段任务细则.xlsx
+++ b/SE2020-G02-实现阶段/阶段任务细则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12675"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -126,14 +126,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,53 +148,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +184,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -231,15 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +254,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,24 +528,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,11 +554,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,145 +577,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,11 +1098,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1274,6 +1274,7 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -1487,7 +1488,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1504,7 +1505,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SE2020-G02-实现阶段/阶段任务细则.xlsx
+++ b/SE2020-G02-实现阶段/阶段任务细则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>任务清单</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>软件测试报告</t>
-  </si>
-  <si>
-    <t>详细设计修订</t>
-  </si>
-  <si>
-    <t>单元测试</t>
-  </si>
-  <si>
-    <t>集成测试</t>
-  </si>
-  <si>
-    <t>系统测试</t>
   </si>
   <si>
     <t>代码清单（后端）</t>
@@ -104,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,14 +114,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,128 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,30 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,6 +471,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,26 +516,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,11 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1138,8 +1126,8 @@
         <v>40</v>
       </c>
       <c r="E3" s="5">
-        <f>E9*C9*3/(C9+C20+C28)</f>
-        <v>80.6832298136646</v>
+        <f>E9*C9*3/(C9+C16+C24)</f>
+        <v>81.6981132075472</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1239,8 +1227,8 @@
         <v>60</v>
       </c>
       <c r="E11" s="5">
-        <f>E20*C20*3/(C9+C20+C28)</f>
-        <v>84.7826086956522</v>
+        <f>E16*C16*3/(C9+C16+C24)</f>
+        <v>83.5849056603774</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1274,7 +1262,12 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>85</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -1283,195 +1276,155 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C11:C15)</f>
+        <v>53</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUMPRODUCT((C11:C15)*(D11:D15))</f>
+        <v>4430</v>
+      </c>
+      <c r="E16" s="7">
+        <f>D16/C16</f>
+        <v>83.5849056603774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E24*C24*3/(C9+C16+C24)+C25</f>
+        <v>70.6792452830189</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
         <v>90</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C11:C19)</f>
-        <v>55</v>
-      </c>
-      <c r="D20" s="1">
-        <f>SUMPRODUCT((C11:C19)*(D11:D19))</f>
-        <v>4550</v>
-      </c>
-      <c r="E20" s="7">
-        <f>D20/C20</f>
-        <v>82.7272727272727</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f>E28*C28*3/(C9+C20+C28)+C29</f>
-        <v>70.1366459627329</v>
-      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24"/>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C18:C23)</f>
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUMPRODUCT((C18:C23)*(D18:D23))</f>
+        <v>3905</v>
+      </c>
+      <c r="E24" s="7">
+        <f>D24/C24</f>
+        <v>75.0961538461538</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>60</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>80</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>90</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28"/>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <f>SUM(C22:C27)</f>
-        <v>52</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUMPRODUCT((C22:C27)*(D22:D27))</f>
-        <v>3925</v>
-      </c>
-      <c r="E28" s="7">
-        <f>D28/C28</f>
-        <v>75.4807692307692</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="7"/>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E18:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
